--- a/Richárd Farkas - Tesztmenedzser.xlsx
+++ b/Richárd Farkas - Tesztmenedzser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farkas Richárd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farkas Richárd\Desktop\proba\Farkas-Rich-rd-Martin-Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9C267-A123-49C4-9D04-1B682567B224}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B884E1-C0A4-4DF7-9052-F29B62FA8662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -287,16 +287,7 @@
     <t>"E-mail cím vagy felhasználónév" : farkasrichardev0511@gmail.com "Jelszó" : Selenium0511</t>
   </si>
   <si>
-    <t>1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
-3. Kattinsunk a "Webes lejátszó" gombra.</t>
-  </si>
-  <si>
     <t>Megjelenik a Spotfy főoldal.</t>
-  </si>
-  <si>
-    <t>1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
-3. Kattinsunk a "Webes lejátszó" gombra.
-4. Kattintsunk a "Műsorlista létrehozása" gombra.</t>
   </si>
   <si>
     <t>A műsorlistálhoz hozzáadódik egy üres lisa.</t>
@@ -315,38 +306,15 @@
 Zenecím: Azariah El barto</t>
   </si>
   <si>
-    <t>1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
-3. Kattinsunk a "Webes lejátszó" gombra.
-4. Kattintsunk a "Műsorlista létrehozása" gombra.
-5. Kattintsunk a létrejött műsorlitára.
-6. Írjuk be a "Dalok és epizódok keresése" mezőbe a megadott zenecímet.
-7. Kattintsunk a "Hozzzáadás" gombra.</t>
-  </si>
-  <si>
     <t>A megadott zene hozzá lett adva az újonnan létrehozott listához.</t>
-  </si>
-  <si>
-    <t>Zene hozzáadása új műsorlistához fájlból.</t>
   </si>
   <si>
     <t>"E-mail cím vagy felhasználónév" : farkasrichardev0511@gmail.com "Jelszó" : Selenium0511
 Zenecím: Azariah.txt következő sora</t>
   </si>
   <si>
-    <t>1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
-3. Kattinsunk a "Webes lejátszó" gombra.
-4. Kattintsunk a "Műsorlista létrehozása" gombra.
-5. Kattintsunk a létrejött műsorlitára.
-6. Írjuk be a "Dalok és epizódok keresése" mezőbe a megadott zenecímet.
-7. Kattintsunk a "Hozzzáadás" gombra.
-8. 6-7 lépést ismételjük, amíg van a fájlnak következő sora.</t>
-  </si>
-  <si>
     <t>Legyen nyitva a "https://accounts.spotify.com/hu/login/" oldal
 Legyen előkészítve az Azariah.txt</t>
-  </si>
-  <si>
-    <t>Győződjünk meg róla, hogy sikeresen be tudunk jelentkezni egy regisztrált felhasználóval, és létre tudunk hozni egy új műsorlistát, és hozzá tudunk adni  zeneszámokat.</t>
   </si>
   <si>
     <t>Győződjünk meg róla, hogy sikeresen be tudunk jelentkezni egy regisztrált felhasználóval, és létre tudunk hozni egy új műsorlistát, és hozzá tudunk adni  zeneszámokat fájlból.</t>
@@ -363,14 +331,6 @@
 Zeneszám2: "Bon jovi Born to Follow"</t>
   </si>
   <si>
-    <t>1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
-3. Kattinsunk a "Webes lejátszó" gombra.
-4. Kattintsunk a megadott műsorlistára.
-6. Írjuk be a "Dalok és epizódok keresése" mezőbe a megadott zenecímet.
-7. Kattintsunk a "Hozzzáadás" gombra.
-8. 6-7 Lépést ismételjük, amíg végigmentünk a megadott zeneszámokon.</t>
-  </si>
-  <si>
     <t>A megadott műsorlista zenéi bővültek a megadott zeneszámokkal.</t>
   </si>
   <si>
@@ -378,14 +338,6 @@
   </si>
   <si>
     <t>Győződjünk meg róla, hogy sikeresen be tudunk jelentkezni egy regisztrált felhasználóval, és törölni tudjuk a műsorlistákat.</t>
-  </si>
-  <si>
-    <t>1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
-3. Kattinsunk a "Webes lejátszó" gombra.
-4. Nyomunk jobb egérgombot az első listán.
-5. Kattintsunk a "Törlés" gombra.
-6. Erősítsük meg a törlést
-7. Ismételjük meg, amíg el érünk a megadott listáig.</t>
   </si>
   <si>
     <t>"E-mail cím vagy felhasználónév" : farkasrichardev0511@gmail.com "Jelszó" : Selenium0511
@@ -428,18 +380,73 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
+    <t>Az elemek kilistázásra kerülnek.</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>1. Adjuk meg a megadott adatokat a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
+3. Kattinsunk a "Webes lejátszó" gombra.</t>
+  </si>
+  <si>
+    <t>1. Adjuk meg a megadott adatokat a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
+3. Kattinsunk a "Webes lejátszó" gombra.
+4. Kattintsunk a "Műsorlista létrehozása" gombra.</t>
+  </si>
+  <si>
+    <t>Győződjünk meg róla, hogy sikeresen be tudunk jelentkezni egy regisztrált felhasználóval, és létre tudunk hozni egy új műsorlistát, és hozzá tudunk adni  zeneszámokatl.</t>
+  </si>
+  <si>
+    <t>Zene hozzáadása új műsorlistához fájból</t>
+  </si>
+  <si>
+    <t>1. Adjuk meg a megadott adatokat a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
+3. Kattinsunk a "Webes lejátszó" gombra.
+4. Kattintsunk a "Műsorlista létrehozása" gombra.
+5. Kattintsunk a létrejött műsorlitára.
+6. Írjuk be a "Dalok és epizódok keresése" mezőbe a megadott zenecímet.
+7. Kattintsunk a "Hozzzáadás" gombra.</t>
+  </si>
+  <si>
+    <t>1. Adjuk meg a megadott adatokat a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
+3. Kattinsunk a "Webes lejátszó" gombra.
+4. Kattintsunk a "Műsorlista létrehozása" gombra.
+5. Kattintsunk a létrejött műsorlitára.
+6. Írjuk be a "Dalok és epizódok keresése" mezőbe a megadott zenecímet.
+7. Kattintsunk a "Hozzáadás" gombra.
+8. 6-7 lépést ismételjük, amíg van a fájlnak következő sora.</t>
+  </si>
+  <si>
+    <t>1. Adjuk meg a megadott adatokat a megadott mezőkbe. 
+2. Kattintsunk a "Bejelentkezés" gombra. 
+3. Kattinsunk a "Webes lejátszó" gombra.
+4. Kattintsunk a megadott műsorlistára.
+6. Írjuk be a "Dalok és epizódok keresése" mezőbe a megadott zenecímet.
+7. Kattintsunk a "Hozzzáadás" gombra.
+8. 6-7 Lépést ismételjük, amíg végigmentünk a megadott zeneszámokon.</t>
+  </si>
+  <si>
+    <t>1. Adjuk meg a megadott adatokat a megadott mezőkbe. 
+2. Kattintsunk a "Bejelentkezés" gombra. 
+3. Kattinsunk a "Webes lejátszó" gombra.
+4. Nyomjunk jobb egérgombot az első listán.
+5. Kattintsunk a "Törlés" gombra.
+6. Erősítsük meg a törlést.
+7. Ismételjük meg, amíg elérünk a megadott listáig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adjuk meg a megadott adatokat a megadott mezőkbe. 
+2. Kattintsunk a "Bejelentkezés" gombra. 
 3. Kattintsunk a "Webes lejátszó" gombra.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2. Adjuk meg a megadott adatokatt a megadott mezőkbe. 2. Kattintsunk a "Bejelentkezés" gombra. 
+    <t xml:space="preserve">1. Adjuk meg a megadott adatokat a megadott mezőkbe. 
+2. Kattintsunk a "Bejelentkezés" gombra. 
 3. Kattintsunk a "Webes lejátszó" gombra.
 4. Kattintsunk az első "Az Összes" gombra
 </t>
-  </si>
-  <si>
-    <t>Az elemek kilistázásra kerülnek.</t>
   </si>
 </sst>
 </file>
@@ -589,7 +596,7 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -729,14 +736,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
@@ -827,46 +826,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1187,9 +1146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1367,7 +1326,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1402,22 +1361,22 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1437,10 +1396,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>82</v>
@@ -1452,22 +1411,22 @@
         <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1487,10 +1446,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>82</v>
@@ -1502,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1532,18 +1491,18 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="205.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:24" ht="229.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>27</v>
@@ -1552,22 +1511,22 @@
         <v>23</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1582,15 +1541,15 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="193.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:24" ht="230.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>82</v>
@@ -1602,22 +1561,22 @@
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1632,18 +1591,18 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="157.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:24" ht="183.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>16</v>
@@ -1652,22 +1611,22 @@
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1682,18 +1641,18 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="60" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:24" ht="99" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>30</v>
@@ -1702,22 +1661,22 @@
         <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>84</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1732,18 +1691,18 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="109.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:24" ht="124.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>30</v>
@@ -1752,22 +1711,22 @@
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>84</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -7998,127 +7957,127 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="E2:E5 E9 E11:E23">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5 E9 E11:E23">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5 E9 E11:E23">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5 K9 K11:K23">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5 K9 K11:K23">
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5 K9 K11:K23">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Richárd Farkas - Tesztmenedzser.xlsx
+++ b/Richárd Farkas - Tesztmenedzser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farkas Richárd\Desktop\proba\Farkas-Rich-rd-Martin-Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B884E1-C0A4-4DF7-9052-F29B62FA8662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F7FF5-984F-47D5-ADD5-234AD4052F86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,9 +364,6 @@
     <t>Minden műsorlista neve megtalálható a listanevek.txt fájlba</t>
   </si>
   <si>
-    <t>Automatizált tesz</t>
-  </si>
-  <si>
     <t>Kilistázás fájlba</t>
   </si>
   <si>
@@ -447,6 +444,9 @@
 3. Kattintsunk a "Webes lejátszó" gombra.
 4. Kattintsunk az első "Az Összes" gombra
 </t>
+  </si>
+  <si>
+    <t>Automatizált teszt</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1167,7 +1167,7 @@
     <col min="12" max="12" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="48.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="64.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>84</v>
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>84</v>
@@ -1449,7 +1449,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>82</v>
@@ -1461,7 +1461,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>90</v>
@@ -1496,7 +1496,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>94</v>
@@ -1511,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>92</v>
@@ -1561,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>97</v>
@@ -1611,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>101</v>
@@ -1646,7 +1646,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>104</v>
@@ -1661,7 +1661,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>84</v>
@@ -1676,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="12" spans="1:24" ht="124.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>30</v>
@@ -1711,22 +1711,22 @@
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>84</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
